--- a/web/src/main/resources/db/excel.xlsx
+++ b/web/src/main/resources/db/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F3374-EA0C-4B55-BB4A-5451E5DB78BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFF5197-C9B9-4E61-BB03-C65BC16B11C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,11 +636,11 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G6" si="0">"private "&amp;IF(OR(C3="key",C3="text",C3="boolean",C3="time"),"String",IF(C3="number","Double","String"))&amp;" "&amp;B3&amp;" ;"</f>
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="boolean",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer","String")))&amp;" "&amp;B3&amp;" ;"</f>
         <v>private String pk_user ;</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H19" si="1">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <f t="shared" ref="H3:H19" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
         <v>pk_user char(20)  not null,</v>
       </c>
       <c r="I3" t="str">
@@ -665,11 +665,11 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G4:G19" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="boolean",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer","String")))&amp;" "&amp;B4&amp;" ;"</f>
         <v>private String userCode ;</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>userCode varchar2(100)  not null,</v>
       </c>
       <c r="I4" t="str">
@@ -694,11 +694,11 @@
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>private String userName ;</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>userName varchar2(100)  not null,</v>
       </c>
       <c r="I5" t="str">
@@ -720,11 +720,11 @@
         <v>16</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>private String password ;</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>password varchar2(100),</v>
       </c>
       <c r="I6" t="str">
@@ -746,11 +746,11 @@
         <v>17</v>
       </c>
       <c r="G7" t="str">
-        <f>"private "&amp;IF(OR(C7="key",C7="text",C7="boolean",C7="time"),"String",IF(C7="number","Double","String"))&amp;" "&amp;B7&amp;" ;"</f>
+        <f t="shared" si="1"/>
         <v>private String isLocked ;</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>isLocked char(1),</v>
       </c>
       <c r="I7" t="str">
@@ -772,11 +772,11 @@
         <v>18</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" ref="G8:G19" si="3">"private "&amp;IF(OR(C8="key",C8="text",C8="boolean",C8="time"),"String",IF(C8="number","Double","String"))&amp;" "&amp;B8&amp;" ;"</f>
+        <f t="shared" si="1"/>
         <v>private String telephone ;</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>telephone varchar2(100),</v>
       </c>
       <c r="I8" t="str">
@@ -798,11 +798,11 @@
         <v>19</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>private String email ;</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>email varchar2(100),</v>
       </c>
       <c r="I9" t="str">
@@ -824,11 +824,11 @@
         <v>20</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>private String sex ;</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sex varchar2(100),</v>
       </c>
       <c r="I10" t="str">
@@ -850,11 +850,11 @@
         <v>21</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>private String city ;</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>city varchar2(100),</v>
       </c>
       <c r="I11" t="str">
@@ -876,11 +876,11 @@
         <v>22</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>private String sign ;</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sign varchar2(100),</v>
       </c>
       <c r="I12" t="str">
@@ -902,11 +902,11 @@
         <v>23</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="3"/>
-        <v>private Double score ;</v>
+        <f t="shared" si="1"/>
+        <v>private BigDecimal score ;</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>score number(18,8),</v>
       </c>
       <c r="I13" t="str">
@@ -928,11 +928,11 @@
         <v>28</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>private String creator ;</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>creator varchar2(100),</v>
       </c>
       <c r="I14" t="str">
@@ -954,11 +954,11 @@
         <v>29</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>private String creationTime ;</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>creationTime char(19),</v>
       </c>
       <c r="I15" t="str">
@@ -980,11 +980,11 @@
         <v>30</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>private String modifier ;</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>modifier varchar2(100),</v>
       </c>
       <c r="I16" t="str">
@@ -1006,11 +1006,11 @@
         <v>31</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>private String modifyTime ;</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>modifyTime char(19),</v>
       </c>
       <c r="I17" t="str">
@@ -1032,11 +1032,11 @@
         <v>32</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>private String ts ;</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ts char(19),</v>
       </c>
       <c r="I18" t="str">
@@ -1058,11 +1058,11 @@
         <v>33</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>private String dr ;</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>dr char(1),</v>
       </c>
       <c r="I19" t="str">

--- a/web/src/main/resources/db/excel.xlsx
+++ b/web/src/main/resources/db/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFF5197-C9B9-4E61-BB03-C65BC16B11C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C84681-DC45-4E33-91C7-E45D4744F6E8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>pk_user</t>
   </si>
@@ -206,6 +206,10 @@
   </si>
   <si>
     <t>必填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>table列</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +255,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -281,6 +292,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,9 +589,10 @@
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
@@ -590,7 +605,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -615,8 +630,11 @@
       <c r="H2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -647,8 +665,12 @@
         <f>"comment on column"&amp;" "&amp;A3&amp;"."&amp;B3&amp;" is"&amp;" '"&amp;D3&amp;"';"</f>
         <v>comment on column auth_user.pk_user is '主键';</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="5" t="str">
+        <f>"{field: '"&amp;B3&amp;"', title: '"&amp;D3&amp;"', width:80},"</f>
+        <v>{field: 'pk_user', title: '主键', width:80},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -676,8 +698,12 @@
         <f t="shared" ref="I4:I19" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
         <v>comment on column auth_user.userCode is '用户编码';</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="5" t="str">
+        <f t="shared" ref="J4:J19" si="3">"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
+        <v>{field: 'userCode', title: '用户编码', width:80},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -705,8 +731,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.userName is '用户名';</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'userName', title: '用户名', width:80},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -731,8 +761,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.password is '密码';</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'password', title: '密码', width:80},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -757,8 +791,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.isLocked is '是否锁定';</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'isLocked', title: '是否锁定', width:80},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -783,8 +821,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.telephone is '手机';</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'telephone', title: '手机', width:80},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -809,8 +851,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.email is '邮箱';</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'email', title: '邮箱', width:80},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -835,8 +881,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.sex is '性别';</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'sex', title: '性别', width:80},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -861,8 +911,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.city is '城市';</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'city', title: '城市', width:80},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -887,8 +941,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.sign is '签名';</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'sign', title: '签名', width:80},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -913,8 +971,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.score is '分数';</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'score', title: '分数', width:80},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -939,8 +1001,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.creator is '创建人';</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creator', title: '创建人', width:80},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -965,8 +1031,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.creationTime is '创建时间';</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creationTime', title: '创建时间', width:80},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -991,8 +1061,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.modifier is '修改人';</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifier', title: '修改人', width:80},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1017,8 +1091,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.modifyTime is '修改时间';</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifyTime', title: '修改时间', width:80},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1043,8 +1121,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.ts is '时间戳';</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'ts', title: '时间戳', width:80},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1069,8 +1151,12 @@
         <f t="shared" si="2"/>
         <v>comment on column auth_user.dr is '删除标志';</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'dr', title: '删除标志', width:80},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G21" s="2" t="s">
         <v>47</v>
       </c>
